--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Iskola\Daniel_tanar\Projekt_Adat_ZB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2023-24\IKT projektmunka II\! Adatbázis_FB_SZZ\Projekt_Adat_ZB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Szettek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Szett</t>
   </si>
@@ -200,16 +200,61 @@
   </si>
   <si>
     <t>Sopron</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Agymenők</t>
+  </si>
+  <si>
+    <t>Szériaszám</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Tajszám</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Születés</t>
+  </si>
+  <si>
+    <t>Tlefonszám</t>
+  </si>
+  <si>
+    <t>Fizetés</t>
+  </si>
+  <si>
+    <t>Sonka Csaba</t>
+  </si>
+  <si>
+    <t>Korty Olga</t>
+  </si>
+  <si>
+    <t>sonka.csaba@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -233,16 +278,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,24 +570,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +599,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -571,8 +621,11 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -592,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -612,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -632,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -652,7 +705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -672,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -692,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -712,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -732,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -752,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -772,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -792,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -812,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -832,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -852,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -872,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -892,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -912,7 +965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -932,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -952,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -972,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -990,6 +1043,32 @@
       </c>
       <c r="G23">
         <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2015</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>484</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>21302</v>
       </c>
     </row>
   </sheetData>
@@ -1004,9 +1083,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1117,12 +1205,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3">
+        <v>19421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015"/>
   </bookViews>
   <sheets>
     <sheet name="Szettek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Szett</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Harry Potter</t>
   </si>
   <si>
-    <t>Doby a házimanó</t>
-  </si>
-  <si>
     <t>Londoni piros telefonfülke</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>sonka.csaba@gmail.com</t>
+  </si>
+  <si>
+    <t>Dobby a házimanó</t>
   </si>
 </sst>
 </file>
@@ -284,11 +284,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,15 +589,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,6 +644,9 @@
       <c r="G3">
         <v>12</v>
       </c>
+      <c r="H3">
+        <v>21037</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -664,6 +667,9 @@
       <c r="G4">
         <v>8</v>
       </c>
+      <c r="H4">
+        <v>76224</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -684,6 +690,9 @@
       <c r="G5">
         <v>18</v>
       </c>
+      <c r="H5">
+        <v>10329</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -704,6 +713,9 @@
       <c r="G6">
         <v>16</v>
       </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -724,6 +736,9 @@
       <c r="G7">
         <v>10</v>
       </c>
+      <c r="H7">
+        <v>40619</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -744,6 +759,9 @@
       <c r="G8">
         <v>5</v>
       </c>
+      <c r="H8">
+        <v>60404</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -764,6 +782,9 @@
       <c r="G9">
         <v>8</v>
       </c>
+      <c r="H9">
+        <v>60380</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -784,6 +805,9 @@
       <c r="G10">
         <v>8</v>
       </c>
+      <c r="H10">
+        <v>31158</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -804,6 +828,9 @@
       <c r="G11">
         <v>8</v>
       </c>
+      <c r="H11">
+        <v>31143</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -824,6 +851,9 @@
       <c r="G12">
         <v>18</v>
       </c>
+      <c r="H12">
+        <v>10295</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -844,6 +874,9 @@
       <c r="G13">
         <v>7</v>
       </c>
+      <c r="H13">
+        <v>40518</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -864,6 +897,9 @@
       <c r="G14">
         <v>18</v>
       </c>
+      <c r="H14">
+        <v>76252</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -884,6 +920,9 @@
       <c r="G15">
         <v>18</v>
       </c>
+      <c r="H15">
+        <v>43227</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -904,6 +943,9 @@
       <c r="G16">
         <v>6</v>
       </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -924,6 +966,9 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>10412</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -944,6 +989,9 @@
       <c r="G18">
         <v>2</v>
       </c>
+      <c r="H18">
+        <v>10996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -964,6 +1012,9 @@
       <c r="G19">
         <v>12</v>
       </c>
+      <c r="H19">
+        <v>41757</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -984,10 +1035,13 @@
       <c r="G20">
         <v>18</v>
       </c>
+      <c r="H20">
+        <v>76417</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>11990</v>
@@ -1004,10 +1058,13 @@
       <c r="G21">
         <v>8</v>
       </c>
+      <c r="H21">
+        <v>76421</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>47990</v>
@@ -1019,15 +1076,18 @@
         <v>1460</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
+      <c r="H22">
+        <v>21347</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>33990</v>
@@ -1039,10 +1099,13 @@
         <v>516</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>18</v>
+      </c>
+      <c r="H23">
+        <v>21345</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,19 +1113,19 @@
         <v>2015</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>484</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>12</v>
@@ -1098,19 +1161,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,13 +1181,13 @@
         <v>2700000</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>108000000000</v>
@@ -1135,13 +1198,13 @@
         <v>2850000</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>1956</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>114000000000</v>
@@ -1152,13 +1215,13 @@
         <v>2500000</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>2008</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>100000000000</v>
@@ -1169,13 +1232,13 @@
         <v>3000000</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2012</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>120000000000</v>
@@ -1186,13 +1249,13 @@
         <v>3100000</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>1942</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>124000000000</v>
@@ -1207,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1221,38 +1284,38 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2">
         <v>19421</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="3015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Szettek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Szett</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Születés</t>
   </si>
   <si>
-    <t>Tlefonszám</t>
-  </si>
-  <si>
     <t>Fizetés</t>
   </si>
   <si>
@@ -236,6 +233,12 @@
   </si>
   <si>
     <t>Dobby a házimanó</t>
+  </si>
+  <si>
+    <t>korty.olga@gmail.com</t>
+  </si>
+  <si>
+    <t>Telefonszám</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>11990</v>
@@ -1270,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,21 +1296,21 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>19421</v>
@@ -1315,12 +1318,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>Szett</t>
   </si>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +626,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -649,6 +652,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -672,6 +678,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -695,6 +704,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -718,6 +730,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -741,6 +756,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2024</v>
+      </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -764,6 +782,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -787,6 +808,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2024</v>
+      </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -810,6 +834,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2023</v>
+      </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -833,6 +860,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -856,6 +886,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2022</v>
+      </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -879,6 +912,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -902,6 +938,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -925,6 +964,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -948,6 +990,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2024</v>
+      </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -971,6 +1016,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2023</v>
+      </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -994,6 +1042,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2023</v>
+      </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1017,6 +1068,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2023</v>
+      </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1040,6 +1094,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2023</v>
+      </c>
       <c r="B21" t="s">
         <v>69</v>
       </c>
@@ -1063,6 +1120,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2024</v>
+      </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1086,6 +1146,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
